--- a/REGULAR/OJT/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/OLEGARIO NENITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D422F3-F2DB-4E2D-B649-709E584ADA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="456">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1410,11 +1409,14 @@
   <si>
     <t>2024</t>
   </si>
+  <si>
+    <t>12/28,29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2134,7 +2136,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2151,25 +2153,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K724" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K728" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2476,34 +2478,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K724"/>
+  <dimension ref="A2:K728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A693"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A688" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B708" sqref="B708"/>
+      <selection pane="bottomLeft" activeCell="I694" sqref="I694"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2548,7 +2550,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2578,7 +2580,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2591,7 +2593,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2608,7 +2610,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2652,7 +2654,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>83.101999999999919</v>
+        <v>82.059999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2662,12 +2664,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.439999999999941</v>
+        <v>63.397999999999968</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>444</v>
       </c>
@@ -2692,7 +2694,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>98</v>
       </c>
@@ -2707,7 +2709,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>34341</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>125</v>
@@ -2755,7 +2757,7 @@
         <v>34361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34366</v>
       </c>
@@ -2777,7 +2779,7 @@
         <v>34393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34394</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>34424</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>125</v>
@@ -2825,7 +2827,7 @@
         <v>34407</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>125</v>
@@ -2847,7 +2849,7 @@
         <v>34409</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>122</v>
@@ -2867,7 +2869,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -2885,7 +2887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2903,7 +2905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34425</v>
       </c>
@@ -2927,7 +2929,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>124</v>
@@ -2949,7 +2951,7 @@
         <v>34454</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34455</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>95</v>
@@ -2994,7 +2996,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -3013,7 +3015,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>125</v>
@@ -3032,7 +3034,7 @@
         <v>34480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>125</v>
@@ -3054,7 +3056,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34486</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>34515</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>125</v>
@@ -3102,7 +3104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>93</v>
@@ -3147,7 +3149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
@@ -3166,7 +3168,7 @@
         <v>34546</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34547</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>34577</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>125</v>
@@ -3214,7 +3216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>125</v>
@@ -3234,7 +3236,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34578</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34608</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>34638</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
@@ -3306,7 +3308,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>125</v>
@@ -3326,7 +3328,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34639</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>34668</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>125</v>
@@ -3374,7 +3376,7 @@
         <v>34646</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34669</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>125</v>
@@ -3422,7 +3424,7 @@
         <v>34677</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>99</v>
       </c>
@@ -3444,7 +3446,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34700</v>
       </c>
@@ -3466,7 +3468,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>124</v>
@@ -3488,7 +3490,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>125</v>
@@ -3510,7 +3512,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>34731</v>
       </c>
@@ -3534,7 +3536,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>124</v>
@@ -3556,7 +3558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>125</v>
@@ -3576,7 +3578,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>34759</v>
       </c>
@@ -3602,7 +3604,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -3624,7 +3626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>136</v>
@@ -3646,7 +3648,7 @@
         <v>34789</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>125</v>
@@ -3666,7 +3668,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>125</v>
@@ -3686,7 +3688,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>34790</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>149</v>
@@ -3734,7 +3736,7 @@
         <v>34819</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>34820</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>152</v>
@@ -3782,7 +3784,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>125</v>
@@ -3804,7 +3806,7 @@
         <v>34834</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>125</v>
@@ -3826,7 +3828,7 @@
         <v>34843</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>125</v>
@@ -3848,7 +3850,7 @@
         <v>34821</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>125</v>
@@ -3870,7 +3872,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>34851</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>132</v>
@@ -3918,7 +3920,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>125</v>
@@ -3940,7 +3942,7 @@
         <v>34872</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>34881</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>132</v>
@@ -3988,7 +3990,7 @@
         <v>34911</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>125</v>
@@ -4010,7 +4012,7 @@
         <v>34898</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>34912</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>124</v>
@@ -4058,7 +4060,7 @@
         <v>34942</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>125</v>
@@ -4080,7 +4082,7 @@
         <v>34925</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>125</v>
@@ -4102,7 +4104,7 @@
         <v>34919</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>34943</v>
       </c>
@@ -4128,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>124</v>
@@ -4150,7 +4152,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>125</v>
@@ -4172,7 +4174,7 @@
         <v>34949</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>34973</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>35003</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35004</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35034</v>
       </c>
@@ -4246,7 +4248,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>95</v>
@@ -4268,7 +4270,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>132</v>
@@ -4290,7 +4292,7 @@
         <v>35064</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>125</v>
@@ -4312,7 +4314,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>100</v>
       </c>
@@ -4334,7 +4336,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35065</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>35095</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>35096</v>
       </c>
@@ -4380,7 +4382,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>35125</v>
       </c>
@@ -4404,7 +4406,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4426,7 +4428,7 @@
         <v>35143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>95</v>
@@ -4448,7 +4450,7 @@
         <v>35155</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>136</v>
@@ -4468,7 +4470,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35156</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>35186</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>35216</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -4542,7 +4544,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>35217</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>125</v>
@@ -4585,7 +4587,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>125</v>
@@ -4604,7 +4606,7 @@
         <v>35244</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35247</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>35277</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>167</v>
@@ -4650,7 +4652,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>35278</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>35308</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>35309</v>
       </c>
@@ -4702,7 +4704,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>125</v>
@@ -4721,7 +4723,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>170</v>
@@ -4738,7 +4740,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>35339</v>
       </c>
@@ -4764,7 +4766,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>125</v>
@@ -4786,7 +4788,7 @@
         <v>35347</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>125</v>
@@ -4808,7 +4810,7 @@
         <v>35356</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>125</v>
@@ -4830,7 +4832,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>35370</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>167</v>
@@ -4871,7 +4873,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>124</v>
@@ -4890,7 +4892,7 @@
         <v>35399</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>125</v>
@@ -4909,7 +4911,7 @@
         <v>35383</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>125</v>
@@ -4928,7 +4930,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>35400</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>35430</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>174</v>
@@ -4973,7 +4975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>125</v>
@@ -4992,7 +4994,7 @@
         <v>35405</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>125</v>
@@ -5011,7 +5013,7 @@
         <v>35412</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>125</v>
@@ -5030,7 +5032,7 @@
         <v>35426</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>101</v>
       </c>
@@ -5052,7 +5054,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>35431</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>35461</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>125</v>
@@ -5100,7 +5102,7 @@
         <v>35451</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>35462</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>132</v>
@@ -5145,7 +5147,7 @@
         <v>35489</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>35490</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>35510</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>175</v>
@@ -5193,7 +5195,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>167</v>
@@ -5213,7 +5215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
@@ -5235,7 +5237,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>125</v>
@@ -5257,7 +5259,7 @@
         <v>35506</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>35521</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>167</v>
@@ -5300,7 +5302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>125</v>
@@ -5319,7 +5321,7 @@
         <v>35537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>125</v>
@@ -5338,7 +5340,7 @@
         <v>35538</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>35551</v>
       </c>
@@ -5364,7 +5366,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5386,7 +5388,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>35582</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5431,7 +5433,7 @@
         <v>35586</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>35612</v>
       </c>
@@ -5455,7 +5457,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -5474,7 +5476,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>125</v>
@@ -5493,7 +5495,7 @@
         <v>35627</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>35643</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -5538,7 +5540,7 @@
         <v>35663</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>35674</v>
       </c>
@@ -5562,7 +5564,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -5582,7 +5584,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5600,7 +5602,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>35704</v>
       </c>
@@ -5626,7 +5628,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>35735</v>
       </c>
@@ -5650,7 +5652,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>35765</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>95</v>
@@ -5696,7 +5698,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>124</v>
@@ -5718,7 +5720,7 @@
         <v>35795</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>102</v>
       </c>
@@ -5740,7 +5742,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>35796</v>
       </c>
@@ -5764,7 +5766,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>35827</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>186</v>
@@ -5807,7 +5809,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>35855</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>35885</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>93</v>
@@ -5852,7 +5854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>164</v>
@@ -5869,7 +5871,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>125</v>
@@ -5888,7 +5890,7 @@
         <v>35877</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>35886</v>
       </c>
@@ -5912,7 +5914,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>125</v>
@@ -5934,7 +5936,7 @@
         <v>35909</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>35916</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>35944</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>190</v>
@@ -5980,7 +5982,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>125</v>
@@ -6002,7 +6004,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>35947</v>
       </c>
@@ -6028,7 +6030,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>189</v>
@@ -6048,7 +6050,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>167</v>
@@ -6068,7 +6070,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>35977</v>
       </c>
@@ -6094,7 +6096,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>125</v>
@@ -6116,7 +6118,7 @@
         <v>35989</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>36008</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>36018</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>132</v>
@@ -6164,7 +6166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>132</v>
@@ -6186,7 +6188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>152</v>
@@ -6208,7 +6210,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>192</v>
@@ -6228,7 +6230,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>36039</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>36039</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>181</v>
@@ -6273,7 +6275,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>186</v>
@@ -6290,7 +6292,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="49"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>167</v>
@@ -6307,7 +6309,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>36069</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>36087</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>199</v>
@@ -6353,7 +6355,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>36100</v>
       </c>
@@ -6377,7 +6379,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>36130</v>
       </c>
@@ -6401,7 +6403,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>201</v>
@@ -6419,7 +6421,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>103</v>
       </c>
@@ -6441,7 +6443,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>36161</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>124</v>
@@ -6486,7 +6488,7 @@
         <v>36202</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -6503,7 +6505,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>36192</v>
       </c>
@@ -6527,7 +6529,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>175</v>
@@ -6544,7 +6546,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>167</v>
@@ -6564,7 +6566,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>36220</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>152</v>
@@ -6609,7 +6611,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>172</v>
@@ -6630,7 +6632,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>36251</v>
       </c>
@@ -6656,7 +6658,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>210</v>
@@ -6678,7 +6680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>36281</v>
       </c>
@@ -6702,7 +6704,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>167</v>
@@ -6722,7 +6724,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>36312</v>
       </c>
@@ -6746,7 +6748,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>167</v>
@@ -6768,7 +6770,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>36342</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>214</v>
@@ -6816,7 +6818,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>36373</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>36381</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>215</v>
@@ -6862,7 +6864,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>36404</v>
       </c>
@@ -6888,7 +6890,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>216</v>
@@ -6908,7 +6910,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>36434</v>
       </c>
@@ -6932,7 +6934,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>36465</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>36488</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>218</v>
@@ -6978,7 +6980,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>36495</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>218</v>
@@ -7024,7 +7026,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="48" t="s">
         <v>104</v>
       </c>
@@ -7046,7 +7048,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>36526</v>
       </c>
@@ -7070,7 +7072,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>36557</v>
       </c>
@@ -7094,7 +7096,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>36586</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>224</v>
@@ -7137,7 +7139,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>167</v>
@@ -7154,7 +7156,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>167</v>
@@ -7171,7 +7173,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>36617</v>
       </c>
@@ -7195,7 +7197,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>36647</v>
       </c>
@@ -7219,7 +7221,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>167</v>
@@ -7239,7 +7241,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>36678</v>
       </c>
@@ -7265,7 +7267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>230</v>
@@ -7285,7 +7287,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>36708</v>
       </c>
@@ -7309,7 +7311,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>36739</v>
       </c>
@@ -7333,7 +7335,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>36770</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>36787</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>227</v>
@@ -7376,7 +7378,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>36800</v>
       </c>
@@ -7400,7 +7402,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>36831</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>235</v>
@@ -7443,7 +7445,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>36861</v>
       </c>
@@ -7467,7 +7469,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>105</v>
       </c>
@@ -7489,7 +7491,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>36892</v>
       </c>
@@ -7513,7 +7515,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>36923</v>
       </c>
@@ -7537,7 +7539,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>167</v>
@@ -7557,7 +7559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>36951</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>36963</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>93</v>
@@ -7605,7 +7607,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>242</v>
@@ -7625,7 +7627,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>36982</v>
       </c>
@@ -7649,7 +7651,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7669,7 +7671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>37012</v>
       </c>
@@ -7693,7 +7695,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>167</v>
@@ -7713,7 +7715,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>37043</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>37060</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>244</v>
@@ -7759,7 +7761,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>37073</v>
       </c>
@@ -7783,7 +7785,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>37104</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>37104</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>245</v>
@@ -7831,7 +7833,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>246</v>
@@ -7851,7 +7853,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>37135</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>37178</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>244</v>
@@ -7897,7 +7899,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>37165</v>
       </c>
@@ -7923,7 +7925,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>136</v>
@@ -7945,7 +7947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>244</v>
@@ -7965,7 +7967,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>37196</v>
       </c>
@@ -7989,7 +7991,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>37226</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>124</v>
@@ -8037,7 +8039,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>188</v>
@@ -8057,7 +8059,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
         <v>106</v>
       </c>
@@ -8079,7 +8081,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>37257</v>
       </c>
@@ -8107,7 +8109,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>222</v>
@@ -8127,7 +8129,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>37288</v>
       </c>
@@ -8153,7 +8155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>37316</v>
       </c>
@@ -8177,7 +8179,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>37347</v>
       </c>
@@ -8201,7 +8203,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>257</v>
@@ -8221,7 +8223,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>167</v>
@@ -8241,7 +8243,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>37377</v>
       </c>
@@ -8265,7 +8267,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>37408</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>37438</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>124</v>
@@ -8337,7 +8339,7 @@
         <v>37459</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>167</v>
@@ -8357,7 +8359,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>37469</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>37500</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>124</v>
@@ -8431,7 +8433,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>37530</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>37547</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>140</v>
@@ -8477,7 +8479,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>37561</v>
       </c>
@@ -8503,7 +8505,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>124</v>
@@ -8525,7 +8527,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>264</v>
@@ -8542,7 +8544,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="49"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>37591</v>
       </c>
@@ -8566,7 +8568,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>107</v>
       </c>
@@ -8588,7 +8590,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>37622</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>266</v>
@@ -8631,7 +8633,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>167</v>
@@ -8648,7 +8650,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>37653</v>
       </c>
@@ -8668,7 +8670,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>37681</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>37712</v>
       </c>
@@ -8720,7 +8722,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>37742</v>
       </c>
@@ -8740,7 +8742,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>37773</v>
       </c>
@@ -8764,7 +8766,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>37803</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>124</v>
@@ -8812,7 +8814,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>270</v>
@@ -8832,7 +8834,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>37834</v>
       </c>
@@ -8858,7 +8860,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>271</v>
@@ -8878,7 +8880,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>37865</v>
       </c>
@@ -8904,7 +8906,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>136</v>
@@ -8926,7 +8928,7 @@
         <v>37879</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>136</v>
@@ -8948,7 +8950,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>272</v>
@@ -8968,7 +8970,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>37895</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>273</v>
@@ -9014,7 +9016,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>167</v>
@@ -9034,7 +9036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>37926</v>
       </c>
@@ -9060,7 +9062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>95</v>
@@ -9080,7 +9082,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>124</v>
@@ -9102,7 +9104,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>274</v>
@@ -9122,7 +9124,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>167</v>
@@ -9142,7 +9144,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>37956</v>
       </c>
@@ -9166,7 +9168,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
         <v>108</v>
       </c>
@@ -9188,7 +9190,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>37987</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>282</v>
@@ -9231,7 +9233,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>38018</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>38022</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>284</v>
@@ -9277,7 +9279,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>167</v>
@@ -9294,7 +9296,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>167</v>
@@ -9314,7 +9316,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>38047</v>
       </c>
@@ -9340,7 +9342,7 @@
         <v>38065</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -9362,7 +9364,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>285</v>
@@ -9382,7 +9384,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>38078</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>38098</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>124</v>
@@ -9430,7 +9432,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>286</v>
@@ -9450,7 +9452,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>38108</v>
       </c>
@@ -9476,7 +9478,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>124</v>
@@ -9498,7 +9500,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>287</v>
@@ -9518,7 +9520,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>38139</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>124</v>
@@ -9566,7 +9568,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>167</v>
@@ -9586,7 +9588,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>93</v>
@@ -9608,7 +9610,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>288</v>
@@ -9628,7 +9630,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>38169</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>289</v>
@@ -9674,7 +9676,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>38200</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>95</v>
@@ -9721,7 +9723,7 @@
         <v>38218</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>297</v>
@@ -9738,7 +9740,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>176</v>
@@ -9760,7 +9762,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>38231</v>
       </c>
@@ -9786,7 +9788,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>299</v>
@@ -9803,7 +9805,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>38261</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>38271</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>217</v>
@@ -9846,7 +9848,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>38292</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>301</v>
@@ -9889,7 +9891,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>38322</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>38341</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>298</v>
@@ -9939,7 +9941,7 @@
         <v>38337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>215</v>
@@ -9956,7 +9958,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>109</v>
       </c>
@@ -9978,7 +9980,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>38353</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>38356</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>167</v>
@@ -10024,7 +10026,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>302</v>
@@ -10044,7 +10046,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>38384</v>
       </c>
@@ -10068,7 +10070,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>167</v>
@@ -10088,7 +10090,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>38412</v>
       </c>
@@ -10108,7 +10110,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>38443</v>
       </c>
@@ -10128,7 +10130,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>38473</v>
       </c>
@@ -10154,7 +10156,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>38504</v>
       </c>
@@ -10174,7 +10176,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>38534</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>124</v>
@@ -10219,7 +10221,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>38565</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>38576</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>124</v>
@@ -10267,7 +10269,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>38596</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>38626</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>38657</v>
       </c>
@@ -10339,7 +10341,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>38687</v>
       </c>
@@ -10363,7 +10365,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>132</v>
@@ -10383,7 +10385,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>110</v>
       </c>
@@ -10405,7 +10407,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>38718</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>38749</v>
       </c>
@@ -10457,7 +10459,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>38777</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>167</v>
@@ -10503,7 +10505,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>311</v>
@@ -10523,7 +10525,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>38808</v>
       </c>
@@ -10549,7 +10551,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>124</v>
@@ -10571,7 +10573,7 @@
         <v>38813</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>124</v>
@@ -10593,7 +10595,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>38838</v>
       </c>
@@ -10619,7 +10621,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>38869</v>
       </c>
@@ -10639,7 +10641,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>38899</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>136</v>
@@ -10687,7 +10689,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>38930</v>
       </c>
@@ -10707,7 +10709,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>38961</v>
       </c>
@@ -10733,7 +10735,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>306</v>
@@ -10755,7 +10757,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>124</v>
@@ -10777,7 +10779,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>38991</v>
       </c>
@@ -10803,7 +10805,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>124</v>
@@ -10825,7 +10827,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>39022</v>
       </c>
@@ -10845,7 +10847,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>39052</v>
       </c>
@@ -10871,7 +10873,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>132</v>
@@ -10893,7 +10895,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="48" t="s">
         <v>111</v>
       </c>
@@ -10917,7 +10919,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>39083</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>167</v>
@@ -10961,7 +10963,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>39114</v>
       </c>
@@ -10987,7 +10989,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>124</v>
@@ -11009,7 +11011,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>298</v>
@@ -11033,7 +11035,7 @@
         <v>39140</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>39142</v>
       </c>
@@ -11059,7 +11061,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>39173</v>
       </c>
@@ -11085,7 +11087,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>306</v>
@@ -11104,7 +11106,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -11125,7 +11127,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>39203</v>
       </c>
@@ -11145,7 +11147,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>39234</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>298</v>
@@ -11192,7 +11194,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>201</v>
@@ -11211,7 +11213,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>39264</v>
       </c>
@@ -11239,7 +11241,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>323</v>
@@ -11261,7 +11263,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>298</v>
@@ -11283,7 +11285,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>39295</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>39296</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>298</v>
@@ -11333,7 +11335,7 @@
         <v>39313</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>39326</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>323</v>
@@ -11383,7 +11385,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>324</v>
@@ -11403,7 +11405,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>298</v>
@@ -11423,7 +11425,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>39356</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>39387</v>
       </c>
@@ -11469,7 +11471,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>39417</v>
       </c>
@@ -11495,7 +11497,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>323</v>
@@ -11512,7 +11514,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>112</v>
       </c>
@@ -11534,7 +11536,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>39448</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>244</v>
@@ -11580,7 +11582,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>39479</v>
       </c>
@@ -11606,7 +11608,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>39508</v>
       </c>
@@ -11630,7 +11632,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>124</v>
@@ -11652,7 +11654,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>167</v>
@@ -11672,7 +11674,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>244</v>
@@ -11692,7 +11694,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>39539</v>
       </c>
@@ -11718,7 +11720,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>332</v>
@@ -11738,7 +11740,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>39569</v>
       </c>
@@ -11764,7 +11766,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>328</v>
@@ -11784,7 +11786,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>333</v>
@@ -11808,7 +11810,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>124</v>
@@ -11828,7 +11830,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>330</v>
@@ -11852,7 +11854,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>136</v>
@@ -11874,7 +11876,7 @@
       </c>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>331</v>
@@ -11894,7 +11896,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>167</v>
@@ -11914,7 +11916,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>39600</v>
       </c>
@@ -11940,7 +11942,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>39630</v>
       </c>
@@ -11964,7 +11966,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>39661</v>
       </c>
@@ -11990,7 +11992,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>332</v>
@@ -12007,7 +12009,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>39692</v>
       </c>
@@ -12033,7 +12035,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>39722</v>
       </c>
@@ -12057,7 +12059,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>39753</v>
       </c>
@@ -12081,7 +12083,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>39783</v>
       </c>
@@ -12105,7 +12107,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>124</v>
@@ -12125,7 +12127,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>113</v>
       </c>
@@ -12147,7 +12149,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>39814</v>
       </c>
@@ -12167,7 +12169,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>39845</v>
       </c>
@@ -12187,7 +12189,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>39873</v>
       </c>
@@ -12207,7 +12209,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>39904</v>
       </c>
@@ -12227,7 +12229,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>39934</v>
       </c>
@@ -12251,7 +12253,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>311</v>
@@ -12271,7 +12273,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>39965</v>
       </c>
@@ -12291,7 +12293,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>39995</v>
       </c>
@@ -12311,7 +12313,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>40026</v>
       </c>
@@ -12331,7 +12333,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>40057</v>
       </c>
@@ -12357,7 +12359,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>40087</v>
       </c>
@@ -12377,7 +12379,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>40118</v>
       </c>
@@ -12397,7 +12399,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>40148</v>
       </c>
@@ -12423,7 +12425,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>310</v>
@@ -12440,7 +12442,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>353</v>
@@ -12460,7 +12462,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>348</v>
@@ -12477,7 +12479,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
         <v>114</v>
       </c>
@@ -12499,7 +12501,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>40179</v>
       </c>
@@ -12519,7 +12521,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>40210</v>
       </c>
@@ -12545,7 +12547,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>40238</v>
       </c>
@@ -12571,7 +12573,7 @@
         <v>40256</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>124</v>
@@ -12593,7 +12595,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>40269</v>
       </c>
@@ -12613,7 +12615,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>40299</v>
       </c>
@@ -12639,7 +12641,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>167</v>
@@ -12659,7 +12661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>201</v>
@@ -12681,7 +12683,7 @@
         <v>40344</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>40330</v>
       </c>
@@ -12701,7 +12703,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>40360</v>
       </c>
@@ -12725,7 +12727,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>40391</v>
       </c>
@@ -12751,7 +12753,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>40422</v>
       </c>
@@ -12777,7 +12779,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>132</v>
@@ -12796,7 +12798,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>354</v>
@@ -12813,7 +12815,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>40452</v>
       </c>
@@ -12837,7 +12839,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>40483</v>
       </c>
@@ -12861,7 +12863,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>40513</v>
       </c>
@@ -12881,7 +12883,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
         <v>115</v>
       </c>
@@ -12903,7 +12905,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>40544</v>
       </c>
@@ -12929,7 +12931,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>213</v>
@@ -12950,7 +12952,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>40575</v>
       </c>
@@ -12970,7 +12972,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>40603</v>
       </c>
@@ -12996,7 +12998,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>40634</v>
       </c>
@@ -13020,7 +13022,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>123</v>
@@ -13037,7 +13039,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>40664</v>
       </c>
@@ -13057,7 +13059,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>40695</v>
       </c>
@@ -13081,7 +13083,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>361</v>
@@ -13098,7 +13100,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>40725</v>
       </c>
@@ -13124,7 +13126,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>245</v>
@@ -13146,7 +13148,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>40756</v>
       </c>
@@ -13170,7 +13172,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>40787</v>
       </c>
@@ -13196,7 +13198,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>40817</v>
       </c>
@@ -13222,7 +13224,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>40848</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>40878</v>
       </c>
@@ -13274,7 +13276,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
         <v>116</v>
       </c>
@@ -13296,7 +13298,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>40909</v>
       </c>
@@ -13316,7 +13318,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>40940</v>
       </c>
@@ -13336,7 +13338,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>40969</v>
       </c>
@@ -13362,7 +13364,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>167</v>
@@ -13379,7 +13381,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>41000</v>
       </c>
@@ -13399,7 +13401,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>41030</v>
       </c>
@@ -13425,7 +13427,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>370</v>
@@ -13445,7 +13447,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>41061</v>
       </c>
@@ -13469,7 +13471,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>41091</v>
       </c>
@@ -13495,7 +13497,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>124</v>
@@ -13517,7 +13519,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>372</v>
@@ -13537,7 +13539,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>41122</v>
       </c>
@@ -13561,7 +13563,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>41153</v>
       </c>
@@ -13587,7 +13589,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>41183</v>
       </c>
@@ -13613,7 +13615,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>311</v>
@@ -13633,7 +13635,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>41214</v>
       </c>
@@ -13653,7 +13655,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>41244</v>
       </c>
@@ -13679,7 +13681,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
         <v>117</v>
       </c>
@@ -13701,7 +13703,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>41275</v>
       </c>
@@ -13721,7 +13723,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>41306</v>
       </c>
@@ -13745,7 +13747,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>41334</v>
       </c>
@@ -13765,7 +13767,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>41365</v>
       </c>
@@ -13785,7 +13787,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>41395</v>
       </c>
@@ -13805,7 +13807,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>41426</v>
       </c>
@@ -13831,7 +13833,7 @@
         <v>41453</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>381</v>
@@ -13851,7 +13853,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>41456</v>
       </c>
@@ -13871,7 +13873,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>41487</v>
       </c>
@@ -13891,7 +13893,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>41518</v>
       </c>
@@ -13917,7 +13919,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>41548</v>
       </c>
@@ -13937,7 +13939,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>41579</v>
       </c>
@@ -13957,7 +13959,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>41609</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>306</v>
@@ -14002,7 +14004,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>382</v>
@@ -14019,7 +14021,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>118</v>
       </c>
@@ -14041,7 +14043,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>41640</v>
       </c>
@@ -14065,7 +14067,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>172</v>
@@ -14087,7 +14089,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>41671</v>
       </c>
@@ -14111,7 +14113,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>385</v>
@@ -14128,7 +14130,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>149</v>
@@ -14150,7 +14152,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>41699</v>
       </c>
@@ -14174,7 +14176,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>391</v>
@@ -14196,7 +14198,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>41730</v>
       </c>
@@ -14220,7 +14222,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>132</v>
@@ -14244,7 +14246,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>181</v>
@@ -14268,7 +14270,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>41760</v>
       </c>
@@ -14294,7 +14296,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>395</v>
@@ -14314,7 +14316,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>41791</v>
       </c>
@@ -14340,7 +14342,7 @@
       </c>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>132</v>
@@ -14362,7 +14364,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>41821</v>
       </c>
@@ -14386,7 +14388,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>124</v>
@@ -14408,7 +14410,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>41852</v>
       </c>
@@ -14434,7 +14436,7 @@
       </c>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>132</v>
@@ -14456,7 +14458,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>41883</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>399</v>
@@ -14504,7 +14506,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>41913</v>
       </c>
@@ -14530,7 +14532,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>181</v>
@@ -14554,7 +14556,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>400</v>
@@ -14574,7 +14576,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>41944</v>
       </c>
@@ -14600,7 +14602,7 @@
       </c>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>132</v>
@@ -14622,7 +14624,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>41974</v>
       </c>
@@ -14650,7 +14652,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="48" t="s">
         <v>119</v>
       </c>
@@ -14672,7 +14674,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42005</v>
       </c>
@@ -14696,7 +14698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>403</v>
@@ -14716,7 +14718,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42036</v>
       </c>
@@ -14736,7 +14738,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42064</v>
       </c>
@@ -14756,7 +14758,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42095</v>
       </c>
@@ -14782,7 +14784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>124</v>
@@ -14804,7 +14806,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42125</v>
       </c>
@@ -14824,7 +14826,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>42156</v>
       </c>
@@ -14844,7 +14846,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42186</v>
       </c>
@@ -14864,7 +14866,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>42217</v>
       </c>
@@ -14884,7 +14886,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42248</v>
       </c>
@@ -14910,7 +14912,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>42278</v>
       </c>
@@ -14936,7 +14938,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>136</v>
@@ -14955,7 +14957,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>167</v>
@@ -14972,7 +14974,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>414</v>
@@ -14989,7 +14991,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42309</v>
       </c>
@@ -15013,7 +15015,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>42339</v>
       </c>
@@ -15037,7 +15039,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>416</v>
@@ -15054,7 +15056,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
         <v>120</v>
       </c>
@@ -15073,7 +15075,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>42370</v>
       </c>
@@ -15093,7 +15095,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>42401</v>
       </c>
@@ -15113,7 +15115,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42430</v>
       </c>
@@ -15133,7 +15135,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>42461</v>
       </c>
@@ -15153,7 +15155,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>42491</v>
       </c>
@@ -15173,7 +15175,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42522</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>42552</v>
       </c>
@@ -15225,7 +15227,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>42583</v>
       </c>
@@ -15251,7 +15253,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>42614</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>42644</v>
       </c>
@@ -15297,7 +15299,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>42675</v>
       </c>
@@ -15317,7 +15319,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>42705</v>
       </c>
@@ -15343,7 +15345,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="48" t="s">
         <v>121</v>
       </c>
@@ -15365,7 +15367,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>42736</v>
       </c>
@@ -15389,7 +15391,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>42767</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>425</v>
@@ -15435,7 +15437,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>42795</v>
       </c>
@@ -15459,7 +15461,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>124</v>
@@ -15481,7 +15483,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>181</v>
@@ -15503,7 +15505,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>384</v>
@@ -15523,7 +15525,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>42826</v>
       </c>
@@ -15549,7 +15551,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>42856</v>
       </c>
@@ -15575,7 +15577,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>42887</v>
       </c>
@@ -15595,7 +15597,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>42917</v>
       </c>
@@ -15615,7 +15617,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>42948</v>
       </c>
@@ -15641,7 +15643,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>124</v>
@@ -15663,7 +15665,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>136</v>
@@ -15685,7 +15687,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>93</v>
@@ -15707,7 +15709,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>42979</v>
       </c>
@@ -15733,7 +15735,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43009</v>
       </c>
@@ -15759,7 +15761,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43040</v>
       </c>
@@ -15785,7 +15787,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>290</v>
@@ -15809,7 +15811,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>43070</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="48" t="s">
         <v>46</v>
       </c>
@@ -15853,7 +15855,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43101</v>
       </c>
@@ -15879,7 +15881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43132</v>
       </c>
@@ -15907,7 +15909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43160</v>
       </c>
@@ -15931,7 +15933,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43191</v>
       </c>
@@ -15951,7 +15953,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
         <v>43221</v>
       </c>
@@ -15971,7 +15973,7 @@
       <c r="J603" s="12"/>
       <c r="K603" s="15"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>43252</v>
       </c>
@@ -15997,7 +15999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43282</v>
       </c>
@@ -16023,7 +16025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43313</v>
       </c>
@@ -16049,7 +16051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>440</v>
@@ -16071,7 +16073,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>441</v>
@@ -16093,7 +16095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43344</v>
       </c>
@@ -16113,7 +16115,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>43374</v>
       </c>
@@ -16133,7 +16135,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43405</v>
       </c>
@@ -16159,7 +16161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -16185,7 +16187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="48" t="s">
         <v>58</v>
       </c>
@@ -16203,7 +16205,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43466</v>
       </c>
@@ -16225,7 +16227,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>51</v>
@@ -16245,7 +16247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -16269,7 +16271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>43497</v>
       </c>
@@ -16289,7 +16291,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43525</v>
       </c>
@@ -16309,7 +16311,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43556</v>
       </c>
@@ -16335,7 +16337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>43586</v>
       </c>
@@ -16359,7 +16361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>47</v>
@@ -16383,7 +16385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43617</v>
       </c>
@@ -16403,7 +16405,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>43647</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>49</v>
@@ -16451,7 +16453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43678</v>
       </c>
@@ -16477,7 +16479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>43709</v>
       </c>
@@ -16503,7 +16505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>442</v>
@@ -16525,7 +16527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>51</v>
@@ -16545,7 +16547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>43739</v>
       </c>
@@ -16565,7 +16567,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>43770</v>
       </c>
@@ -16591,7 +16593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>49</v>
@@ -16613,7 +16615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>43800</v>
       </c>
@@ -16639,7 +16641,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="23" t="s">
         <v>72</v>
       </c>
@@ -16657,7 +16659,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>43831</v>
       </c>
@@ -16681,7 +16683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>51</v>
@@ -16701,7 +16703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>51</v>
@@ -16721,7 +16723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>43862</v>
       </c>
@@ -16741,7 +16743,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>43891</v>
       </c>
@@ -16761,7 +16763,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43922</v>
       </c>
@@ -16781,7 +16783,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>43952</v>
       </c>
@@ -16801,7 +16803,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>43983</v>
       </c>
@@ -16821,7 +16823,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>44013</v>
       </c>
@@ -16847,7 +16849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>47</v>
@@ -16869,7 +16871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44044</v>
       </c>
@@ -16889,7 +16891,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44075</v>
       </c>
@@ -16909,7 +16911,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44105</v>
       </c>
@@ -16929,7 +16931,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44136</v>
       </c>
@@ -16949,7 +16951,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>44166</v>
       </c>
@@ -16973,7 +16975,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="48" t="s">
         <v>80</v>
       </c>
@@ -16991,7 +16993,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44197</v>
       </c>
@@ -17017,7 +17019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44228</v>
       </c>
@@ -17037,7 +17039,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44256</v>
       </c>
@@ -17057,7 +17059,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44287</v>
       </c>
@@ -17077,7 +17079,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44317</v>
       </c>
@@ -17097,7 +17099,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44348</v>
       </c>
@@ -17121,7 +17123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44378</v>
       </c>
@@ -17141,7 +17143,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44409</v>
       </c>
@@ -17161,7 +17163,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44440</v>
       </c>
@@ -17187,7 +17189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44470</v>
       </c>
@@ -17211,7 +17213,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44501</v>
       </c>
@@ -17231,7 +17233,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44531</v>
       </c>
@@ -17257,7 +17259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>84</v>
@@ -17277,7 +17279,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="48" t="s">
         <v>86</v>
       </c>
@@ -17295,7 +17297,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44562</v>
       </c>
@@ -17321,7 +17323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>44593</v>
       </c>
@@ -17341,7 +17343,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44621</v>
       </c>
@@ -17363,7 +17365,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44652</v>
       </c>
@@ -17385,7 +17387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>44682</v>
       </c>
@@ -17405,7 +17407,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44713</v>
       </c>
@@ -17431,7 +17433,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>440</v>
@@ -17453,7 +17455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44743</v>
       </c>
@@ -17473,7 +17475,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44774</v>
       </c>
@@ -17493,7 +17495,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>44805</v>
       </c>
@@ -17519,7 +17521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>44835</v>
       </c>
@@ -17539,7 +17541,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44866</v>
       </c>
@@ -17565,7 +17567,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>44896</v>
       </c>
@@ -17591,7 +17593,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="48" t="s">
         <v>97</v>
       </c>
@@ -17609,7 +17611,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="49"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>44927</v>
       </c>
@@ -17629,7 +17631,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44958</v>
       </c>
@@ -17649,7 +17651,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>44986</v>
       </c>
@@ -17675,7 +17677,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45017</v>
       </c>
@@ -17695,7 +17697,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45047</v>
       </c>
@@ -17721,7 +17723,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>124</v>
@@ -17743,7 +17745,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>136</v>
@@ -17765,7 +17767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45078</v>
       </c>
@@ -17791,7 +17793,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20" t="s">
         <v>136</v>
@@ -17813,7 +17815,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>45108</v>
       </c>
@@ -17839,7 +17841,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>136</v>
@@ -17861,7 +17863,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>136</v>
@@ -17883,7 +17885,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>45139</v>
       </c>
@@ -17909,7 +17911,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>124</v>
@@ -17931,7 +17933,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>45170</v>
       </c>
@@ -17957,11 +17959,13 @@
         <v>452</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>45200</v>
       </c>
-      <c r="B693" s="20"/>
+      <c r="B693" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C693" s="13">
         <v>1.25</v>
       </c>
@@ -17972,36 +17976,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H693" s="39"/>
+      <c r="H693" s="39">
+        <v>1</v>
+      </c>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
-      <c r="K693" s="20"/>
-    </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A694" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B694" s="20"/>
-      <c r="C694" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K693" s="49">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="40"/>
+      <c r="B694" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C694" s="13"/>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
-      <c r="F694" s="20"/>
-      <c r="G694" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H694" s="39"/>
+      <c r="F694" s="51"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H694" s="39">
+        <v>1</v>
+      </c>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
-      <c r="K694" s="20"/>
-    </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K694" s="49">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B695" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B695" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="C695" s="13">
         <v>1.25</v>
       </c>
@@ -18015,13 +18027,15 @@
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
-      <c r="K695" s="20"/>
-    </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A696" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="B696" s="20"/>
+      <c r="K695" s="49">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" s="40"/>
+      <c r="B696" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C696" s="13"/>
       <c r="D696" s="39"/>
       <c r="E696" s="9"/>
@@ -18030,54 +18044,62 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H696" s="39"/>
+      <c r="H696" s="39">
+        <v>1</v>
+      </c>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
-      <c r="K696" s="20"/>
-    </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A697" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B697" s="20"/>
-      <c r="C697" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D697" s="39"/>
+      <c r="K696" s="49">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="40"/>
+      <c r="B697" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C697" s="13"/>
+      <c r="D697" s="39">
+        <v>2</v>
+      </c>
       <c r="E697" s="9"/>
-      <c r="F697" s="20"/>
-      <c r="G697" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="F697" s="51"/>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H697" s="39"/>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
-      <c r="K697" s="20"/>
-    </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A698" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B698" s="20"/>
-      <c r="C698" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K697" s="49" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="40"/>
+      <c r="B698" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C698" s="13"/>
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
-      <c r="F698" s="20"/>
-      <c r="G698" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H698" s="39"/>
+      <c r="F698" s="51"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39">
+        <v>1</v>
+      </c>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20"/>
-    </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K698" s="49">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45382</v>
+        <v>45261</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13">
@@ -18095,29 +18117,27 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A700" s="40">
-        <v>45412</v>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A700" s="48" t="s">
+        <v>454</v>
       </c>
       <c r="B700" s="20"/>
-      <c r="C700" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C700" s="13"/>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H700" s="39"/>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45443</v>
+        <v>45322</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13">
@@ -18135,9 +18155,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45473</v>
+        <v>45351</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13">
@@ -18155,9 +18175,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45504</v>
+        <v>45382</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13">
@@ -18175,9 +18195,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>45535</v>
+        <v>45412</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13">
@@ -18195,9 +18215,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13">
@@ -18215,9 +18235,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>45596</v>
+        <v>45473</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13">
@@ -18235,95 +18255,111 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>45602</v>
-      </c>
-      <c r="B707" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>45504</v>
+      </c>
+      <c r="B707" s="20"/>
       <c r="C707" s="13">
-        <v>0.2919999999999997</v>
-      </c>
-      <c r="D707" s="39">
-        <v>5</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="D707" s="39"/>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
       <c r="G707" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.2919999999999997</v>
+        <v>1.25</v>
       </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A708" s="40"/>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="40">
+        <v>45535</v>
+      </c>
       <c r="B708" s="20"/>
-      <c r="C708" s="13"/>
+      <c r="C708" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G708" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A709" s="40"/>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="40">
+        <v>45565</v>
+      </c>
       <c r="B709" s="20"/>
-      <c r="C709" s="13"/>
+      <c r="C709" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D709" s="39"/>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
-      <c r="G709" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G709" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H709" s="39"/>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A710" s="40"/>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A710" s="40">
+        <v>45596</v>
+      </c>
       <c r="B710" s="20"/>
-      <c r="C710" s="13"/>
+      <c r="C710" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D710" s="39"/>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
-      <c r="G710" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G710" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A711" s="40"/>
-      <c r="B711" s="20"/>
-      <c r="C711" s="13"/>
-      <c r="D711" s="39"/>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="40">
+        <v>45602</v>
+      </c>
+      <c r="B711" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C711" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D711" s="39">
+        <v>5</v>
+      </c>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
-      <c r="G711" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G711" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H711" s="39"/>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18339,7 +18375,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18355,7 +18391,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18371,7 +18407,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18387,7 +18423,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18403,7 +18439,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18419,7 +18455,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18435,7 +18471,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18451,7 +18487,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18467,7 +18503,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18483,7 +18519,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18499,7 +18535,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18515,21 +18551,85 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A724" s="41"/>
-      <c r="B724" s="15"/>
-      <c r="C724" s="42"/>
-      <c r="D724" s="43"/>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="40"/>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
       <c r="E724" s="9"/>
-      <c r="F724" s="15"/>
-      <c r="G724" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H724" s="43"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
       <c r="I724" s="9"/>
-      <c r="J724" s="12"/>
-      <c r="K724" s="15"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="40"/>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="40"/>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="40"/>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="41"/>
+      <c r="B728" s="15"/>
+      <c r="C728" s="42"/>
+      <c r="D728" s="43"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="15"/>
+      <c r="G728" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="43"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="12"/>
+      <c r="K728" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18546,10 +18646,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18572,28 +18672,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -18606,7 +18706,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18635,7 +18735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18663,17 +18763,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18694,7 +18794,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18721,7 +18821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18747,7 +18847,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18773,7 +18873,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18799,7 +18899,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18825,7 +18925,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18851,7 +18951,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18877,7 +18977,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18903,7 +19003,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18923,7 +19023,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18943,7 +19043,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18963,7 +19063,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18984,7 +19084,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19005,7 +19105,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19026,7 +19126,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19047,7 +19147,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19068,7 +19168,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19089,7 +19189,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19110,7 +19210,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19131,7 +19231,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19152,7 +19252,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19173,7 +19273,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19194,7 +19294,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19215,7 +19315,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19236,7 +19336,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19257,7 +19357,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19278,7 +19378,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19299,7 +19399,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19320,7 +19420,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19341,7 +19441,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19362,7 +19462,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19383,7 +19483,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19392,7 +19492,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19401,7 +19501,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19410,7 +19510,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19419,7 +19519,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19428,7 +19528,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19437,7 +19537,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19446,7 +19546,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19455,7 +19555,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19464,7 +19564,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19473,7 +19573,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19482,7 +19582,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19491,7 +19591,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19500,7 +19600,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19509,7 +19609,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19518,7 +19618,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19527,7 +19627,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19536,7 +19636,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19545,7 +19645,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19554,7 +19654,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19563,7 +19663,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19572,7 +19672,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19581,7 +19681,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19590,7 +19690,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19599,7 +19699,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19608,7 +19708,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19617,7 +19717,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19626,7 +19726,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19635,7 +19735,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19644,7 +19744,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
